--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tirth\IdeaProjects\SeleniumPOM_TDD\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A3E6B7-F571-4C3B-BE3A-7982DBCB8C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4397599-F506-427D-B10C-D3C9906E6F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
-    <sheet name="My" sheetId="3" r:id="rId2"/>
+    <sheet name="AdminSearchData" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet6" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet7" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet8" sheetId="6" r:id="rId5"/>
@@ -218,8 +218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -236,18 +236,14 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="admin@email.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" display="admin@123" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -261,8 +257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tirth\IdeaProjects\SeleniumPOM_TDD\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4397599-F506-427D-B10C-D3C9906E6F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B819F53-80E4-4CF5-AA9A-87B16A44E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -46,12 +46,15 @@
   <si>
     <t>admin123</t>
   </si>
+  <si>
+    <t>User role</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -64,6 +67,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF64728C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,7 +228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -255,16 +265,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tirth\IdeaProjects\SeleniumPOM_TDD\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B819F53-80E4-4CF5-AA9A-87B16A44E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248D0514-B3B6-41B3-828F-B6DE45BA70D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -67,12 +67,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF64728C"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,10 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -228,8 +221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -265,32 +258,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tirth\IdeaProjects\SeleniumPOM_TDD\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248D0514-B3B6-41B3-828F-B6DE45BA70D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5310AE59-1B93-4470-A56C-106E64A75043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
-    <sheet name="AdminSearchData" sheetId="3" r:id="rId2"/>
+    <sheet name="AdminSearchTestData" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet6" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet7" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet8" sheetId="6" r:id="rId5"/>
@@ -221,7 +221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -260,8 +260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
